--- a/players_stats/Marvin Williams.xlsx
+++ b/players_stats/Marvin Williams.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,101 +570,101 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>772</v>
+        <v>1952</v>
       </c>
       <c r="K2" t="n">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>303</v>
+        <v>531</v>
       </c>
       <c r="M2" t="n">
-        <v>0.38</v>
+        <v>0.4429999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>0.256</v>
+        <v>0.245</v>
       </c>
       <c r="Q2" t="n">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="R2" t="n">
-        <v>264</v>
+        <v>478</v>
       </c>
       <c r="S2" t="n">
-        <v>0.398</v>
+        <v>0.464</v>
       </c>
       <c r="T2" t="n">
-        <v>0.396</v>
+        <v>0.455</v>
       </c>
       <c r="U2" t="n">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="V2" t="n">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7859999999999999</v>
+        <v>0.747</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="Y2" t="n">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="Z2" t="n">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="AA2" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AB2" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>83</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>227</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>672</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 107 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
         <v>2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>87</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>284</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 89 </t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -676,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2004-05</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J3" t="n">
-        <v>2254</v>
+        <v>2179</v>
       </c>
       <c r="K3" t="n">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.433</v>
       </c>
       <c r="N3" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="P3" t="n">
-        <v>0.323</v>
+        <v>0.244</v>
       </c>
       <c r="Q3" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R3" t="n">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="S3" t="n">
-        <v>0.456</v>
+        <v>0.446</v>
       </c>
       <c r="T3" t="n">
-        <v>0.46</v>
+        <v>0.441</v>
       </c>
       <c r="U3" t="n">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="V3" t="n">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="W3" t="n">
-        <v>0.85</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="n">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="Z3" t="n">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="AA3" t="n">
-        <v>484</v>
+        <v>121</v>
       </c>
       <c r="AB3" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AD3" t="n">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="AE3" t="n">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AF3" t="n">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>1531</v>
+        <v>2765</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="L4" t="n">
-        <v>629</v>
+        <v>918</v>
       </c>
       <c r="M4" t="n">
-        <v>0.424</v>
+        <v>0.462</v>
       </c>
       <c r="N4" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>0.382</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>194</v>
+        <v>423</v>
       </c>
       <c r="R4" t="n">
-        <v>438</v>
+        <v>908</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.466</v>
       </c>
       <c r="T4" t="n">
-        <v>0.483</v>
+        <v>0.462</v>
       </c>
       <c r="U4" t="n">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="V4" t="n">
-        <v>113</v>
+        <v>409</v>
       </c>
       <c r="W4" t="n">
-        <v>0.85</v>
+        <v>0.8220000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="Y4" t="n">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c r="Z4" t="n">
-        <v>143</v>
+        <v>457</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="AB4" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="AE4" t="n">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="AF4" t="n">
-        <v>703</v>
+        <v>1185</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -924,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -942,92 +942,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I5" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J5" t="n">
-        <v>2472</v>
+        <v>2093</v>
       </c>
       <c r="K5" t="n">
-        <v>468</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>1049</v>
+        <v>622</v>
       </c>
       <c r="M5" t="n">
-        <v>0.446</v>
+        <v>0.458</v>
       </c>
       <c r="N5" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="O5" t="n">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="P5" t="n">
-        <v>0.346</v>
+        <v>0.355</v>
       </c>
       <c r="Q5" t="n">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="R5" t="n">
-        <v>821</v>
+        <v>467</v>
       </c>
       <c r="S5" t="n">
-        <v>0.474</v>
+        <v>0.493</v>
       </c>
       <c r="T5" t="n">
-        <v>0.484</v>
+        <v>0.502</v>
       </c>
       <c r="U5" t="n">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="V5" t="n">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="W5" t="n">
-        <v>0.855</v>
+        <v>0.8059999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="Y5" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z5" t="n">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="AA5" t="n">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="n">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="n">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="AF5" t="n">
-        <v>1174</v>
+        <v>845</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1048,15 +1048,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1066,92 +1066,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>81</v>
+      </c>
+      <c r="I6" t="n">
+        <v>81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K6" t="n">
+        <v>302</v>
+      </c>
+      <c r="L6" t="n">
+        <v>664</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="N6" t="n">
+        <v>40</v>
+      </c>
+      <c r="O6" t="n">
+        <v>132</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>262</v>
+      </c>
+      <c r="R6" t="n">
+        <v>532</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="U6" t="n">
+        <v>176</v>
+      </c>
+      <c r="V6" t="n">
+        <v>215</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8190000000000001</v>
+      </c>
+      <c r="X6" t="n">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>310</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>416</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB6" t="n">
         <v>66</v>
       </c>
-      <c r="I6" t="n">
-        <v>66</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2410</v>
-      </c>
-      <c r="K6" t="n">
-        <v>441</v>
-      </c>
-      <c r="L6" t="n">
-        <v>919</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N6" t="n">
-        <v>89</v>
-      </c>
-      <c r="O6" t="n">
-        <v>231</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>352</v>
-      </c>
-      <c r="R6" t="n">
-        <v>688</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="U6" t="n">
-        <v>166</v>
-      </c>
-      <c r="V6" t="n">
-        <v>194</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="X6" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>193</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>419</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>78</v>
-      </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="n">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="n">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>1137</v>
+        <v>820</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1172,15 +1172,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1190,92 +1190,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I7" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J7" t="n">
-        <v>2834</v>
+        <v>1865</v>
       </c>
       <c r="K7" t="n">
-        <v>526</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
-        <v>1126</v>
+        <v>537</v>
       </c>
       <c r="M7" t="n">
-        <v>0.467</v>
+        <v>0.458</v>
       </c>
       <c r="N7" t="n">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="O7" t="n">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="P7" t="n">
-        <v>0.436</v>
+        <v>0.336</v>
       </c>
       <c r="Q7" t="n">
-        <v>343</v>
+        <v>209</v>
       </c>
       <c r="R7" t="n">
-        <v>706</v>
+        <v>427</v>
       </c>
       <c r="S7" t="n">
-        <v>0.486</v>
+        <v>0.489</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5479999999999999</v>
+        <v>0.493</v>
       </c>
       <c r="U7" t="n">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="V7" t="n">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="W7" t="n">
-        <v>0.912</v>
+        <v>0.845</v>
       </c>
       <c r="X7" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="Y7" t="n">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Z7" t="n">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="AA7" t="n">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="AB7" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="AE7" t="n">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AF7" t="n">
-        <v>1443</v>
+        <v>676</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1296,15 +1296,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1314,92 +1314,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>2359</v>
+        <v>1500</v>
       </c>
       <c r="K8" t="n">
-        <v>378</v>
+        <v>203</v>
       </c>
       <c r="L8" t="n">
-        <v>855</v>
+        <v>470</v>
       </c>
       <c r="M8" t="n">
-        <v>0.442</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="O8" t="n">
-        <v>371</v>
+        <v>149</v>
       </c>
       <c r="P8" t="n">
-        <v>0.429</v>
+        <v>0.389</v>
       </c>
       <c r="Q8" t="n">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="R8" t="n">
-        <v>484</v>
+        <v>321</v>
       </c>
       <c r="S8" t="n">
         <v>0.452</v>
       </c>
       <c r="T8" t="n">
-        <v>0.535</v>
+        <v>0.494</v>
       </c>
       <c r="U8" t="n">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="V8" t="n">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="W8" t="n">
-        <v>0.894</v>
+        <v>0.7879999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="n">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="Z8" t="n">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="AA8" t="n">
-        <v>368</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD8" t="n">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="n">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="AF8" t="n">
-        <v>1092</v>
+        <v>579</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1420,15 +1420,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1438,92 +1438,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I9" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J9" t="n">
-        <v>1788</v>
+        <v>1727</v>
       </c>
       <c r="K9" t="n">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="L9" t="n">
-        <v>730</v>
+        <v>470</v>
       </c>
       <c r="M9" t="n">
-        <v>0.399</v>
+        <v>0.423</v>
       </c>
       <c r="N9" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="O9" t="n">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="P9" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="Q9" t="n">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="R9" t="n">
-        <v>486</v>
+        <v>304</v>
       </c>
       <c r="S9" t="n">
-        <v>0.436</v>
+        <v>0.477</v>
       </c>
       <c r="T9" t="n">
-        <v>0.453</v>
+        <v>0.481</v>
       </c>
       <c r="U9" t="n">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="V9" t="n">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="W9" t="n">
-        <v>0.853</v>
+        <v>0.778</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="Z9" t="n">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="AA9" t="n">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="n">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="n">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1544,15 +1544,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1562,92 +1562,92 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>1065</v>
+        <v>1674</v>
       </c>
       <c r="K10" t="n">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="L10" t="n">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="M10" t="n">
-        <v>0.385</v>
+        <v>0.439</v>
       </c>
       <c r="N10" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O10" t="n">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="P10" t="n">
-        <v>0.265</v>
+        <v>0.359</v>
       </c>
       <c r="Q10" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="R10" t="n">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="S10" t="n">
-        <v>0.436</v>
+        <v>0.503</v>
       </c>
       <c r="T10" t="n">
-        <v>0.424</v>
+        <v>0.519</v>
       </c>
       <c r="U10" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="V10" t="n">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="W10" t="n">
-        <v>0.833</v>
+        <v>0.7809999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="n">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="Z10" t="n">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="AA10" t="n">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AD10" t="n">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="AE10" t="n">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="AF10" t="n">
-        <v>477</v>
+        <v>603</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1686,92 +1686,92 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J11" t="n">
-        <v>723</v>
+        <v>2035</v>
       </c>
       <c r="K11" t="n">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="L11" t="n">
-        <v>268</v>
+        <v>495</v>
       </c>
       <c r="M11" t="n">
-        <v>0.422</v>
+        <v>0.424</v>
       </c>
       <c r="N11" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="O11" t="n">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="P11" t="n">
-        <v>0.398</v>
+        <v>0.358</v>
       </c>
       <c r="Q11" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="R11" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="T11" t="n">
-        <v>0.502</v>
+        <v>0.52</v>
       </c>
       <c r="U11" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="W11" t="n">
-        <v>0.88</v>
+        <v>0.713</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="Y11" t="n">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="Z11" t="n">
-        <v>56</v>
+        <v>386</v>
       </c>
       <c r="AA11" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AD11" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="n">
-        <v>335</v>
+        <v>577</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1810,92 +1810,92 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="J12" t="n">
-        <v>1472</v>
+        <v>2338</v>
       </c>
       <c r="K12" t="n">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="L12" t="n">
-        <v>611</v>
+        <v>747</v>
       </c>
       <c r="M12" t="n">
-        <v>0.426</v>
+        <v>0.452</v>
       </c>
       <c r="N12" t="n">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="O12" t="n">
-        <v>239</v>
+        <v>378</v>
       </c>
       <c r="P12" t="n">
-        <v>0.389</v>
+        <v>0.402</v>
       </c>
       <c r="Q12" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="R12" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="S12" t="n">
-        <v>0.449</v>
+        <v>0.504</v>
       </c>
       <c r="T12" t="n">
-        <v>0.502</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="V12" t="n">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9</v>
+        <v>0.833</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="n">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="Z12" t="n">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="AA12" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="AE12" t="n">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AF12" t="n">
-        <v>685</v>
+        <v>948</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2012-13</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1934,92 +1934,92 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I13" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="J13" t="n">
-        <v>1418</v>
+        <v>2295</v>
       </c>
       <c r="K13" t="n">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="L13" t="n">
-        <v>533</v>
+        <v>704</v>
       </c>
       <c r="M13" t="n">
-        <v>0.43</v>
+        <v>0.422</v>
       </c>
       <c r="N13" t="n">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="O13" t="n">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="P13" t="n">
-        <v>0.383</v>
+        <v>0.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="R13" t="n">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="S13" t="n">
-        <v>0.449</v>
+        <v>0.494</v>
       </c>
       <c r="T13" t="n">
-        <v>0.485</v>
+        <v>0.51</v>
       </c>
       <c r="U13" t="n">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="V13" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="W13" t="n">
-        <v>0.882</v>
+        <v>0.873</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="Y13" t="n">
-        <v>86</v>
+        <v>411</v>
       </c>
       <c r="Z13" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AA13" t="n">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="AB13" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="AD13" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="AE13" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="n">
-        <v>592</v>
+        <v>849</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2013-14</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2058,92 +2058,92 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>78</v>
+      </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K14" t="n">
+        <v>258</v>
+      </c>
+      <c r="L14" t="n">
+        <v>563</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="N14" t="n">
+        <v>126</v>
+      </c>
+      <c r="O14" t="n">
+        <v>305</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>132</v>
+      </c>
+      <c r="R14" t="n">
+        <v>258</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="U14" t="n">
+        <v>102</v>
+      </c>
+      <c r="V14" t="n">
+        <v>123</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.8290000000000001</v>
+      </c>
+      <c r="X14" t="n">
         <v>74</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1834</v>
-      </c>
-      <c r="K14" t="n">
-        <v>280</v>
-      </c>
-      <c r="L14" t="n">
-        <v>672</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="N14" t="n">
-        <v>83</v>
-      </c>
-      <c r="O14" t="n">
-        <v>225</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>197</v>
-      </c>
-      <c r="R14" t="n">
-        <v>447</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="U14" t="n">
-        <v>78</v>
-      </c>
-      <c r="V14" t="n">
-        <v>89</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.8759999999999999</v>
-      </c>
-      <c r="X14" t="n">
-        <v>42</v>
-      </c>
       <c r="Y14" t="n">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="Z14" t="n">
-        <v>153</v>
+        <v>370</v>
       </c>
       <c r="AA14" t="n">
-        <v>321</v>
+        <v>96</v>
       </c>
       <c r="AB14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="n">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="AE14" t="n">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="AF14" t="n">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2182,92 +2182,92 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="J15" t="n">
-        <v>1980</v>
+        <v>2133</v>
       </c>
       <c r="K15" t="n">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="L15" t="n">
-        <v>860</v>
+        <v>652</v>
       </c>
       <c r="M15" t="n">
-        <v>0.397</v>
+        <v>0.422</v>
       </c>
       <c r="N15" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="O15" t="n">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="P15" t="n">
-        <v>0.342</v>
+        <v>0.366</v>
       </c>
       <c r="Q15" t="n">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="R15" t="n">
-        <v>512</v>
+        <v>270</v>
       </c>
       <c r="S15" t="n">
-        <v>0.434</v>
+        <v>0.5</v>
       </c>
       <c r="T15" t="n">
-        <v>0.466</v>
+        <v>0.529</v>
       </c>
       <c r="U15" t="n">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="V15" t="n">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="W15" t="n">
-        <v>0.872</v>
+        <v>0.767</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="n">
-        <v>152</v>
+        <v>331</v>
       </c>
       <c r="Z15" t="n">
-        <v>174</v>
+        <v>407</v>
       </c>
       <c r="AA15" t="n">
-        <v>424</v>
+        <v>92</v>
       </c>
       <c r="AB15" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="AD15" t="n">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="AE15" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AF15" t="n">
-        <v>964</v>
+        <v>756</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2288,15 +2288,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2306,92 +2306,92 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>288</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34</v>
+      </c>
+      <c r="L16" t="n">
+        <v>77</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="N16" t="n">
         <v>19</v>
       </c>
-      <c r="J16" t="n">
-        <v>1149</v>
-      </c>
-      <c r="K16" t="n">
-        <v>180</v>
-      </c>
-      <c r="L16" t="n">
-        <v>447</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="N16" t="n">
-        <v>59</v>
-      </c>
       <c r="O16" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="P16" t="n">
-        <v>0.347</v>
+        <v>0.396</v>
       </c>
       <c r="Q16" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="R16" t="n">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.517</v>
       </c>
       <c r="T16" t="n">
-        <v>0.469</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="V16" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="W16" t="n">
-        <v>0.851</v>
+        <v>0.8240000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD16" t="n">
         <v>8</v>
       </c>
-      <c r="AD16" t="n">
-        <v>102</v>
-      </c>
       <c r="AE16" t="n">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>499</v>
+        <v>101</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2412,17 +2412,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2014-15</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>32</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -2430,92 +2424,92 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>27</v>
+        <v>1029</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>827</v>
       </c>
       <c r="J17" t="n">
-        <v>831</v>
+        <v>29318</v>
       </c>
       <c r="K17" t="n">
-        <v>161</v>
+        <v>3843</v>
       </c>
       <c r="L17" t="n">
-        <v>413</v>
+        <v>8682</v>
       </c>
       <c r="M17" t="n">
-        <v>0.39</v>
+        <v>0.4429999999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>60</v>
+        <v>1009</v>
       </c>
       <c r="O17" t="n">
-        <v>178</v>
+        <v>2786</v>
       </c>
       <c r="P17" t="n">
-        <v>0.337</v>
+        <v>0.362</v>
       </c>
       <c r="Q17" t="n">
-        <v>101</v>
+        <v>2834</v>
       </c>
       <c r="R17" t="n">
-        <v>235</v>
+        <v>5896</v>
       </c>
       <c r="S17" t="n">
-        <v>0.43</v>
+        <v>0.481</v>
       </c>
       <c r="T17" t="n">
-        <v>0.462</v>
+        <v>0.501</v>
       </c>
       <c r="U17" t="n">
-        <v>83</v>
+        <v>2028</v>
       </c>
       <c r="V17" t="n">
-        <v>93</v>
+        <v>2514</v>
       </c>
       <c r="W17" t="n">
-        <v>0.892</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>1253</v>
       </c>
       <c r="Y17" t="n">
-        <v>67</v>
+        <v>4146</v>
       </c>
       <c r="Z17" t="n">
-        <v>76</v>
+        <v>5399</v>
       </c>
       <c r="AA17" t="n">
-        <v>163</v>
+        <v>1322</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>797</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="AD17" t="n">
-        <v>70</v>
+        <v>996</v>
       </c>
       <c r="AE17" t="n">
-        <v>59</v>
+        <v>2074</v>
       </c>
       <c r="AF17" t="n">
-        <v>465</v>
+        <v>10723</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 107 </t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2524,249 +2518,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2015-16</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>33</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>41</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>748</v>
-      </c>
-      <c r="K18" t="n">
-        <v>132</v>
-      </c>
-      <c r="L18" t="n">
-        <v>302</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.4370000000000001</v>
-      </c>
-      <c r="N18" t="n">
-        <v>36</v>
-      </c>
-      <c r="O18" t="n">
-        <v>102</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>96</v>
-      </c>
-      <c r="R18" t="n">
-        <v>200</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="U18" t="n">
-        <v>38</v>
-      </c>
-      <c r="V18" t="n">
-        <v>42</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>98</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>57</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>338</v>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 89 </t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ18" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>818</v>
-      </c>
-      <c r="I19" t="n">
-        <v>525</v>
-      </c>
-      <c r="J19" t="n">
-        <v>23872</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4051</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9326</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1094</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2891</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.3779999999999999</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2957</v>
-      </c>
-      <c r="R19" t="n">
-        <v>6435</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1563</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1795</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.871</v>
-      </c>
-      <c r="X19" t="n">
-        <v>407</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1857</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2264</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3990</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>721</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>121</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1849</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>2005</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>10759</v>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 89 </t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ19" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
